--- a/atndnc-mngmnt/documents/operation-manual/操作マニュアル.xlsx
+++ b/atndnc-mngmnt/documents/operation-manual/操作マニュアル.xlsx
@@ -5,22 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttaku\OneDrive\デスクトップ\勤怠管理システム-20220219T074130Z-001\勤怠管理システム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\operation-manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC877D19-A141-406F-8518-755D39D69B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F01CB5-9687-44D2-BEC7-F0069DF7FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="105" windowWidth="24090" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="105" windowWidth="24090" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
-    <sheet name="ログイン" sheetId="1" r:id="rId2"/>
+    <sheet name="ログイン方法" sheetId="1" r:id="rId2"/>
     <sheet name="ホーム" sheetId="2" r:id="rId3"/>
     <sheet name="ダッシュボード" sheetId="4" r:id="rId4"/>
     <sheet name="勤怠報告 ⇒ 勤怠一覧" sheetId="5" r:id="rId5"/>
     <sheet name="勤怠報告 ⇒ 勤怠詳細" sheetId="6" r:id="rId6"/>
     <sheet name="勤怠報告 ⇒ 勤怠編集" sheetId="7" r:id="rId7"/>
     <sheet name="勤怠管理 ⇒ 勤怠状況" sheetId="8" r:id="rId8"/>
+    <sheet name="勤怠管理 ⇒ 勤怠一覧" sheetId="9" r:id="rId9"/>
+    <sheet name="勤怠管理 ⇒ 勤怠詳細" sheetId="10" r:id="rId10"/>
+    <sheet name="勤怠管理 ⇒ 勤怠編集" sheetId="11" r:id="rId11"/>
+    <sheet name="人事管理 ⇒ 社員一覧" sheetId="12" r:id="rId12"/>
+    <sheet name="人事管理 ⇒ 人事設定" sheetId="13" r:id="rId13"/>
+    <sheet name="アカウント設定 ⇒ プロフィール" sheetId="15" r:id="rId14"/>
+    <sheet name="アカウント設定 ⇒ パスワード変更" sheetId="14" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$D$38</definedName>
@@ -43,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
   <si>
     <t>http://54.248.65.156/</t>
     <phoneticPr fontId="1"/>
@@ -65,47 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　鈴木 １郎が一部の機能権限を持っています。</t>
-    <rPh sb="2" eb="4">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ロウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　鈴木 管理が全機能権限を持っています。</t>
-    <rPh sb="2" eb="4">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ゼンキノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　　上記以外は基本的な機能を使用可能となります。</t>
     <rPh sb="2" eb="4">
       <t>ジョウキ</t>
@@ -487,19 +453,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインした従業員情報全般の機能</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゼンパン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント設定 ⇒ パスワード変更</t>
     <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
@@ -984,19 +937,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>②　従業員の勤怠状況を確認できます。</t>
-    <rPh sb="2" eb="5">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>キンタイジョウキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>②　日毎の勤怠状況を確認できます。</t>
     <rPh sb="2" eb="4">
       <t>ヒゴト</t>
@@ -1375,22 +1315,6 @@
     </rPh>
     <rPh sb="6" eb="10">
       <t>イチジショウニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインした従業員の月毎の勤怠状況を参照・更新できます。</t>
-    <rPh sb="10" eb="12">
-      <t>ツキゴト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2119,12 +2043,470 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>①　従業員の勤怠一覧を確認できます。</t>
+    <rPh sb="2" eb="5">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①　従業員情報を検索できます。</t>
+    <rPh sb="2" eb="4">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　氏名の完全一致でも部分一致でも検索が可能。</t>
+    <rPh sb="4" eb="6">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンゼンイッチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　社員コードは完全一致で検索できます。</t>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　所属、職位、勤務地、雇用契約でも検索できます。</t>
+    <rPh sb="4" eb="6">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショクイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>キンムチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　勤続年数の一致、以上、以下でも検索できます。</t>
+    <rPh sb="4" eb="6">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ネンスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　年齢の一致、以上、以下でも検索できます。</t>
+    <rPh sb="4" eb="6">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　性別でも検索できます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※デフォルトは指定なし</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　在籍状況でも検索できます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※デフォルトは指定なし</t>
+    </r>
+    <rPh sb="4" eb="8">
+      <t>ザイセキジョウキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　●①詳細な検索ができます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※スマホ画面ではデフォルトで非表示となっています。詳細検索枠の右上の＋、－マークで切り替えられます。</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ショウサイケンサク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②　新しく従業員を登録できます。</t>
+    <rPh sb="2" eb="3">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●①手動で追加する画面へリンクします。</t>
+    <rPh sb="4" eb="6">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　　　アップロードで一括登録出来ます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※アップロードは現在使用不可</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③　従業員情報を出力できます。</t>
+    <rPh sb="2" eb="5">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　出力情報は詳細検索で検索されている場合はそちらを元に出力します。検索を行っていない場合は全従業員が出力されます。</t>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ゼンジュウギョウイン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報を検索、登録、編集、出力できます。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインした従業員に関する全般機能</t>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンパン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①　パスワード変更ができます。</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●①自身のメールアドレスにリセット用のメールを送信する</t>
+    <rPh sb="4" eb="6">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●②パスワード再設定ボタン、またはリンクをクリックする</t>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　●③再度、メールアドレスを入力してください。</t>
+    <rPh sb="4" eb="6">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　新しいパスワードを入力し、もう一度入力してください。</t>
+    <rPh sb="4" eb="5">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　パスワードをリセットし、ホーム画面が表示出来たら完了です。</t>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　鈴木 管理が全機能権限を持っています。鈴木 １郎が一部の機能権限を持っています。</t>
+    <rPh sb="2" eb="4">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゼンキノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2161,6 +2543,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2208,10 +2598,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2230,27 +2621,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2259,7 +2673,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2344,6 +2758,15 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2362,14 +2785,58 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F154CB99-5D62-37F4-E40D-AC8639E9FDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="4912180"/>
+          <a:ext cx="8858249" cy="1377055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>18566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2386,50 +2853,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1469571"/>
-          <a:ext cx="8814227" cy="3447566"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>117690</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28D136C-7F58-4154-AE9D-ECC3B9E1FC60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
@@ -2437,8 +2860,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="5388428"/>
-          <a:ext cx="8867053" cy="1587262"/>
+          <a:off x="0" y="1224643"/>
+          <a:ext cx="8814227" cy="3447566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2451,14 +2874,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>616322</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>11204</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9355</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>199627</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2473,8 +2896,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8100251" y="5399633"/>
-          <a:ext cx="753747" cy="188423"/>
+          <a:off x="8100251" y="4923385"/>
+          <a:ext cx="753747" cy="383401"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2517,14 +2940,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>423653</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>169199</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>235661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2547,8 +2970,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8082643"/>
-          <a:ext cx="4505796" cy="4088056"/>
+          <a:off x="0" y="6858000"/>
+          <a:ext cx="3769179" cy="3419732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2561,14 +2984,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>110744</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>188979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2591,8 +3014,2004 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12981214"/>
-          <a:ext cx="8858250" cy="5254244"/>
+          <a:off x="0" y="10531929"/>
+          <a:ext cx="8164286" cy="4842621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>48351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88049638-5375-97C0-2E03-3E1BE5A52D0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2775856"/>
+          <a:ext cx="9470571" cy="6579781"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>363564</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>223306</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>31296</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D864226-029F-4355-9C63-106AF444E8B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1724278" y="4865767"/>
+          <a:ext cx="2581171" cy="798886"/>
+          <a:chOff x="6851238" y="2737575"/>
+          <a:chExt cx="2594176" cy="786096"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B2901A-3415-C93D-4614-DD0A31018309}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6890473" y="2785610"/>
+            <a:ext cx="2554941" cy="738061"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A5250EA-5E3D-A6BB-E3DF-084907B177A7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6851238" y="2737575"/>
+            <a:ext cx="509701" cy="336176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>449034</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>220115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>108854</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D41632-32CA-4B0C-9138-29B463F1D1E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1809748" y="3649115"/>
+          <a:ext cx="3741963" cy="1031742"/>
+          <a:chOff x="6954934" y="2136015"/>
+          <a:chExt cx="1832608" cy="1545799"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854A83DB-AD14-F0B5-C2B0-C8D3250C98C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6954934" y="2700617"/>
+            <a:ext cx="1832608" cy="981197"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032CC946-74B8-F4CB-1A17-4F4B67F555FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7944971" y="2136015"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>540284</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3628EDF2-0270-4BF5-9634-45B1B7C83D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6953251" y="4898892"/>
+          <a:ext cx="2431676" cy="2231250"/>
+          <a:chOff x="6939644" y="4898892"/>
+          <a:chExt cx="2431676" cy="2231250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF87662F-F98A-8725-D4CF-235ADF834928}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6939644" y="4910591"/>
+            <a:ext cx="2431676" cy="2219551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE56A62E-D893-B5C9-1B2E-F743DF76F834}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6968460" y="4898892"/>
+            <a:ext cx="507402" cy="351068"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑤</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>391961</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>194501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>122461</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C43B9E-5198-4AAF-BDF6-B0ADEE49BBDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1752675" y="6807572"/>
+          <a:ext cx="3812643" cy="1166212"/>
+          <a:chOff x="6920743" y="2572940"/>
+          <a:chExt cx="1858556" cy="1824074"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49AD3F87-3669-B94C-E1E3-FA34A3330CF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6953391" y="3077472"/>
+            <a:ext cx="1825908" cy="1319542"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739D8B16-AA1F-8903-3E88-99CEB76D6DA2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6920743" y="2572940"/>
+            <a:ext cx="226568" cy="543341"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑥</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9605</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30973</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B635E180-DFD2-4DB5-9D1B-44A88DC4FE70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4381500" y="4902652"/>
+          <a:ext cx="2431676" cy="2231250"/>
+          <a:chOff x="6939644" y="4898892"/>
+          <a:chExt cx="2431676" cy="2231250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{343DC20E-4A65-2DCF-FD94-F323477A569E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6939644" y="4910591"/>
+            <a:ext cx="2431676" cy="2219551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C7AA6D3-04D5-FC6B-86C9-CD14EFD44279}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6968460" y="4898892"/>
+            <a:ext cx="507402" cy="351068"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166008</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>544287</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05AA67A2-32AB-4C11-A31A-F3968EB40CE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5608865" y="3556587"/>
+          <a:ext cx="3780065" cy="1287555"/>
+          <a:chOff x="6914950" y="2136015"/>
+          <a:chExt cx="1851268" cy="1929069"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F761FA63-0161-DB3C-B4D6-6E3D361CEAE4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6914950" y="2841876"/>
+            <a:ext cx="1851268" cy="1223208"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFEC9A7B-C6F6-AF3F-54BD-A34B5E3D2424}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7944971" y="2136015"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>34887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76F8D49-ECE2-FAEC-1BE2-AB05C0C36F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8572501"/>
+          <a:ext cx="9629775" cy="6702386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>48707</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97921513-D95D-5CB7-FC83-740914857EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2619376"/>
+          <a:ext cx="9649906" cy="4728482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D304CA96-F83E-4F13-B16B-2F936EFD8DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1238249" y="3448050"/>
+          <a:ext cx="8343900" cy="2505075"/>
+          <a:chOff x="6672182" y="1972073"/>
+          <a:chExt cx="4051030" cy="3881176"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D05CB9-88D3-D0A3-B0AB-6FD746F63D2A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6672182" y="1972073"/>
+            <a:ext cx="4051030" cy="3881176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBD6A89-20F2-5829-D46E-1BC62425F679}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7944971" y="2136015"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421288</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>77240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371479</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E906265B-5ED9-4B45-8953-9C02AD56311D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1792888" y="13412240"/>
+          <a:ext cx="1321791" cy="1265786"/>
+          <a:chOff x="7144939" y="7492922"/>
+          <a:chExt cx="641740" cy="1961114"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6E679B-5D0D-CF7C-1258-A7D2B6371584}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7171624" y="8066848"/>
+            <a:ext cx="615055" cy="1387188"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89774A70-EE89-896B-E990-21DB4CBFAA74}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7144939" y="7492922"/>
+            <a:ext cx="226568" cy="543341"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>178348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9361BE29-4938-C602-2CCD-343699DF1512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16668751"/>
+          <a:ext cx="9629775" cy="7083972"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533395</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647695</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>8485</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154CAA84-D466-4965-B19B-490BABA56ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2590795" y="21564600"/>
+          <a:ext cx="800100" cy="827635"/>
+          <a:chOff x="7149563" y="8171759"/>
+          <a:chExt cx="388455" cy="1282276"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49B4F861-0B25-26DA-78A3-4F16F04911BE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7171624" y="8762049"/>
+            <a:ext cx="366394" cy="691986"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="テキスト ボックス 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CAE816B-23E5-1590-3CC8-3151C4C784AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7149563" y="8171759"/>
+            <a:ext cx="226568" cy="543341"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242811</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA52AF4-B549-93F7-AD9C-8E830150CB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="979714"/>
+          <a:ext cx="4324954" cy="2810267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>639533</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85211B39-E6CB-4E92-9694-7A2C65AAFCA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="299356" y="1617494"/>
+          <a:ext cx="3741963" cy="1906756"/>
+          <a:chOff x="6941606" y="2700617"/>
+          <a:chExt cx="1832608" cy="2856782"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE3B1C2-2E87-D22F-D269-B162D9AF88A7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6941606" y="2700617"/>
+            <a:ext cx="1832608" cy="2856782"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A340C9FE-2EF4-05DA-5628-9004D9585191}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8178212" y="2971874"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>183216</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86632EA6-0C02-7F06-76C6-258665D50EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4653643"/>
+          <a:ext cx="6306430" cy="5668166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>353792</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>4081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388666</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB28BA2-851C-45BB-A573-0B2E9B7424A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2394863" y="6127295"/>
+          <a:ext cx="2075946" cy="553811"/>
+          <a:chOff x="6941606" y="2700617"/>
+          <a:chExt cx="1016684" cy="815472"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972B2742-362C-6B39-A2A8-81F2D132F037}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6941606" y="2700617"/>
+            <a:ext cx="793019" cy="815472"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6AD2C7-D28E-DC93-4F73-3D332AB34DE9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7731722" y="2768006"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274869</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>210984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68034</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5661B8-F859-4931-9B6E-4527F6768542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="955226" y="8048698"/>
+          <a:ext cx="4555665" cy="1381052"/>
+          <a:chOff x="6941606" y="2176789"/>
+          <a:chExt cx="2231114" cy="2069148"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB799B8-848D-2AB2-D00C-CBAC0BA045ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6941606" y="2700616"/>
+            <a:ext cx="2231114" cy="1545321"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="テキスト ボックス 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0699527-2D3F-6F02-E003-C69B06797CBF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7638425" y="2176789"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242811</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>136604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34FDFA4-67E6-4DC1-A3BE-ADB6812E5416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11511643"/>
+          <a:ext cx="4324954" cy="3810532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2725,8 +5144,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7126000" y="2137172"/>
-          <a:ext cx="2453498" cy="1766761"/>
+          <a:off x="6958853" y="2140327"/>
+          <a:ext cx="2398059" cy="1770527"/>
           <a:chOff x="6958853" y="2375649"/>
           <a:chExt cx="2398059" cy="1770528"/>
         </a:xfrm>
@@ -2864,8 +5283,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1994530" y="2159964"/>
-          <a:ext cx="5040680" cy="871354"/>
+          <a:off x="1949823" y="2162738"/>
+          <a:ext cx="4919383" cy="874056"/>
           <a:chOff x="6958853" y="2136015"/>
           <a:chExt cx="2398059" cy="1367112"/>
         </a:xfrm>
@@ -3140,8 +5559,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1875948" y="2531904"/>
-          <a:ext cx="2611497" cy="662136"/>
+          <a:off x="1837765" y="2532533"/>
+          <a:ext cx="2554941" cy="661144"/>
           <a:chOff x="6958853" y="2745443"/>
           <a:chExt cx="2554941" cy="661144"/>
         </a:xfrm>
@@ -3279,8 +5698,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1875947" y="1589794"/>
-          <a:ext cx="7750100" cy="876015"/>
+          <a:off x="1837764" y="1591238"/>
+          <a:ext cx="7586382" cy="874057"/>
           <a:chOff x="6958853" y="2136015"/>
           <a:chExt cx="3698145" cy="1367112"/>
         </a:xfrm>
@@ -3418,8 +5837,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4540135" y="2516977"/>
-          <a:ext cx="5075088" cy="868146"/>
+          <a:off x="4444253" y="2516844"/>
+          <a:ext cx="4968688" cy="867331"/>
           <a:chOff x="6947647" y="2655796"/>
           <a:chExt cx="4968688" cy="867331"/>
         </a:xfrm>
@@ -3557,8 +5976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1844189" y="3454602"/>
-          <a:ext cx="7781858" cy="857322"/>
+          <a:off x="1806387" y="3453654"/>
+          <a:ext cx="7617759" cy="856127"/>
           <a:chOff x="6947646" y="2667000"/>
           <a:chExt cx="7617759" cy="856127"/>
         </a:xfrm>
@@ -3740,8 +6159,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1746179" y="12718473"/>
-          <a:ext cx="577305" cy="526321"/>
+          <a:off x="1709139" y="12707471"/>
+          <a:ext cx="565642" cy="526676"/>
           <a:chOff x="6912548" y="2609247"/>
           <a:chExt cx="480654" cy="823775"/>
         </a:xfrm>
@@ -3879,8 +6298,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2798035" y="12762915"/>
-          <a:ext cx="1865122" cy="569621"/>
+          <a:off x="2739575" y="12752294"/>
+          <a:ext cx="1826557" cy="571500"/>
           <a:chOff x="6953391" y="2679355"/>
           <a:chExt cx="890395" cy="893883"/>
         </a:xfrm>
@@ -4018,8 +6437,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2266706" y="20972751"/>
-          <a:ext cx="577685" cy="526322"/>
+          <a:off x="2218765" y="20954999"/>
+          <a:ext cx="565642" cy="526676"/>
           <a:chOff x="6912548" y="2609247"/>
           <a:chExt cx="480654" cy="823775"/>
         </a:xfrm>
@@ -4157,8 +6576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1878444" y="13618858"/>
-          <a:ext cx="451754" cy="619220"/>
+          <a:off x="1839118" y="13610673"/>
+          <a:ext cx="442377" cy="616324"/>
           <a:chOff x="7017292" y="2469031"/>
           <a:chExt cx="375910" cy="963991"/>
         </a:xfrm>
@@ -4345,8 +6764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1810999" y="4435264"/>
-          <a:ext cx="2679980" cy="729219"/>
+          <a:off x="1769721" y="4442337"/>
+          <a:ext cx="2617236" cy="730778"/>
           <a:chOff x="6890473" y="2745443"/>
           <a:chExt cx="2617552" cy="738061"/>
         </a:xfrm>
@@ -4484,8 +6903,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1830980" y="3508256"/>
-          <a:ext cx="7804430" cy="874137"/>
+          <a:off x="1788940" y="3514645"/>
+          <a:ext cx="7621598" cy="874059"/>
           <a:chOff x="6941606" y="2136015"/>
           <a:chExt cx="3715392" cy="1367112"/>
         </a:xfrm>
@@ -4623,8 +7042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4550561" y="4418813"/>
-          <a:ext cx="5087252" cy="1028333"/>
+          <a:off x="4444253" y="4426648"/>
+          <a:ext cx="4968688" cy="1026614"/>
           <a:chOff x="6947647" y="2655796"/>
           <a:chExt cx="4968688" cy="1029056"/>
         </a:xfrm>
@@ -4762,8 +7181,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1871421" y="5392338"/>
-          <a:ext cx="583767" cy="724381"/>
+          <a:off x="1829762" y="5401236"/>
+          <a:ext cx="568843" cy="722778"/>
           <a:chOff x="6912548" y="2668512"/>
           <a:chExt cx="480654" cy="764510"/>
         </a:xfrm>
@@ -4901,8 +7320,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2934678" y="5612147"/>
-          <a:ext cx="1876144" cy="543792"/>
+          <a:off x="2866600" y="5620549"/>
+          <a:ext cx="1832961" cy="542685"/>
           <a:chOff x="6953391" y="2679355"/>
           <a:chExt cx="890395" cy="893883"/>
         </a:xfrm>
@@ -5045,8 +7464,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2464194" y="5388237"/>
-          <a:ext cx="438598" cy="724381"/>
+          <a:off x="2407992" y="5396754"/>
+          <a:ext cx="427103" cy="722778"/>
           <a:chOff x="6912548" y="2668512"/>
           <a:chExt cx="360888" cy="764510"/>
         </a:xfrm>
@@ -5233,8 +7652,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1768632" y="4668143"/>
-          <a:ext cx="2654256" cy="758905"/>
+          <a:off x="1724278" y="4865767"/>
+          <a:ext cx="2581171" cy="798886"/>
           <a:chOff x="6851238" y="2737575"/>
           <a:chExt cx="2594176" cy="786096"/>
         </a:xfrm>
@@ -5372,8 +7791,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1856769" y="3502515"/>
-          <a:ext cx="3846828" cy="981861"/>
+          <a:off x="1809748" y="3649115"/>
+          <a:ext cx="3741963" cy="1031742"/>
           <a:chOff x="6954934" y="2136015"/>
           <a:chExt cx="1832608" cy="1545799"/>
         </a:xfrm>
@@ -5511,8 +7930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7143776" y="4693273"/>
-          <a:ext cx="2495157" cy="2137578"/>
+          <a:off x="6953251" y="4898892"/>
+          <a:ext cx="2431676" cy="2231250"/>
           <a:chOff x="6939644" y="4898892"/>
           <a:chExt cx="2431676" cy="2231250"/>
         </a:xfrm>
@@ -5650,8 +8069,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1797410" y="6526939"/>
-          <a:ext cx="3920556" cy="1115569"/>
+          <a:off x="1752675" y="6807572"/>
+          <a:ext cx="3812643" cy="1166212"/>
           <a:chOff x="6920743" y="2572940"/>
           <a:chExt cx="1858556" cy="1824074"/>
         </a:xfrm>
@@ -5794,8 +8213,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4500463" y="4697033"/>
-          <a:ext cx="2499809" cy="2137578"/>
+          <a:off x="4381500" y="4902652"/>
+          <a:ext cx="2431676" cy="2231250"/>
           <a:chOff x="6939644" y="4898892"/>
           <a:chExt cx="2431676" cy="2231250"/>
         </a:xfrm>
@@ -5933,8 +8352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5761513" y="3410749"/>
-          <a:ext cx="3881423" cy="1235007"/>
+          <a:off x="5608865" y="3556587"/>
+          <a:ext cx="3780065" cy="1287555"/>
           <a:chOff x="6914950" y="2136015"/>
           <a:chExt cx="1851268" cy="1929069"/>
         </a:xfrm>
@@ -6054,138 +8473,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>129182</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E1C5BC6-94EE-D0AD-BFD5-420177FA8467}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="25885589"/>
-          <a:ext cx="9592235" cy="6718240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>7544</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{244DA16A-5990-41AC-803F-7EE684027D07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="18119912"/>
-          <a:ext cx="9569824" cy="6596603"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>7544</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{466723C2-C307-6F77-15A2-35E6A2168B4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9883588"/>
-          <a:ext cx="9569824" cy="6596603"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -6210,7 +8497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6225,1118 +8512,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>89654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>44828</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F42695-B37E-4CC7-A04A-778B62165563}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1875948" y="11864113"/>
-          <a:ext cx="2611497" cy="663279"/>
-          <a:chOff x="6958853" y="2745443"/>
-          <a:chExt cx="2554941" cy="661144"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CE805D-BF82-D11A-EE26-1E03E4A88360}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6958853" y="2745443"/>
-            <a:ext cx="2554941" cy="661144"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="テキスト ボックス 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E8D858-0415-62AA-A2F6-F14A0ACB87AE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8998324" y="2991972"/>
-            <a:ext cx="509701" cy="336176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>②</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>470646</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>89654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>537881</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>22416</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504DE89B-AAA3-4218-8C2D-FF29BCCA30FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1875947" y="10922004"/>
-          <a:ext cx="7750100" cy="876014"/>
-          <a:chOff x="6958853" y="2136015"/>
-          <a:chExt cx="3698145" cy="1367112"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9088B6F1-EB06-C875-2BE8-1B48A46B126D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6958853" y="2700617"/>
-            <a:ext cx="3698145" cy="802510"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="テキスト ボックス 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F6FAA-B259-8799-33B7-26E0180A27D0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7944971" y="2136015"/>
-            <a:ext cx="226568" cy="543340"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>①</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>73965</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241CF34B-3807-4CA4-9845-BE51DDC1F03E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4540135" y="11848805"/>
-          <a:ext cx="5075088" cy="869671"/>
-          <a:chOff x="6947647" y="2655796"/>
-          <a:chExt cx="4968688" cy="867331"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD3F8CF-2FC8-0FD9-AF81-A84AF9275DF4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6947647" y="2667000"/>
-            <a:ext cx="4968688" cy="856127"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F211A78-C64C-7F1A-1686-74C4F56F9557}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9502588" y="2655796"/>
-            <a:ext cx="509701" cy="336176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>③</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>439269</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>69482</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>537881</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>219638</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FA756B-089D-4B17-B651-86931522946F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1844189" y="12786812"/>
-          <a:ext cx="7781858" cy="855214"/>
-          <a:chOff x="6947646" y="2667000"/>
-          <a:chExt cx="7617759" cy="856127"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A0B154-1E17-BD31-3E6D-0AFA85CC0797}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6947646" y="2667000"/>
-            <a:ext cx="7617759" cy="856127"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="テキスト ボックス 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626A5045-F318-3CAA-DEAC-C97DD45C8389}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9502588" y="3048002"/>
-            <a:ext cx="509701" cy="336176"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>④</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>442875</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>179299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>324959</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>4</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="グループ化 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E5A5E8-E3A8-49D0-A72C-6CBFBB64AE14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1847795" y="21845141"/>
-          <a:ext cx="578829" cy="529954"/>
-          <a:chOff x="6912548" y="2609247"/>
-          <a:chExt cx="480654" cy="823775"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="正方形/長方形 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CD64FB-F6CA-7D16-832D-A80074185745}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6939810" y="2718144"/>
-            <a:ext cx="453392" cy="714878"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="テキスト ボックス 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2418D20D-1EA6-B0C6-5C30-3ED5A0A56F1F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6912548" y="2609247"/>
-            <a:ext cx="337820" cy="543339"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>①</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>117400</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>179298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>576839</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>44827</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="グループ化 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D285E7-8ACD-483F-AEFA-E35C733D3FCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2913524" y="21845140"/>
-          <a:ext cx="1864741" cy="574397"/>
-          <a:chOff x="6953391" y="2679355"/>
-          <a:chExt cx="890395" cy="893883"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="正方形/長方形 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACE6467-9E35-E611-9E84-5870733A89B6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6953391" y="2718145"/>
-            <a:ext cx="712991" cy="855093"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキスト ボックス 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1550EBD1-8A30-71B3-0CC3-573FAFCB922C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7617218" y="2679355"/>
-            <a:ext cx="226568" cy="543340"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>②</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>134468</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>139819</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>190497</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="23" name="グループ化 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4151F50-CA80-41D8-8A7A-B5CDA7AAB305}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2357496" y="29573091"/>
-          <a:ext cx="578828" cy="526322"/>
-          <a:chOff x="6912548" y="2609247"/>
-          <a:chExt cx="480654" cy="823775"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="正方形/長方形 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE226DF8-25A7-C7E6-B041-0893E6C1F7A9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6939810" y="2718144"/>
-            <a:ext cx="453392" cy="714878"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="テキスト ボックス 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368B1D9B-C47F-90AF-A612-6BB987CFD63C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6912548" y="2609247"/>
-            <a:ext cx="337820" cy="543339"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>①</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>572854</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>152413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>331673</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>62766</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="グループ化 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34ED91F5-E0A5-4D2B-BCCC-6A2816B6CF4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1981584" y="22761507"/>
-          <a:ext cx="451373" cy="617316"/>
-          <a:chOff x="7017292" y="2469031"/>
-          <a:chExt cx="375910" cy="963991"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="正方形/長方形 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC91C84-98BB-9A81-728F-15139FCFC5C3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7035187" y="3001853"/>
-            <a:ext cx="358015" cy="431169"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="テキスト ボックス 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4704156F-8AF8-F631-F1E1-96C58C3BED54}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7017292" y="2469031"/>
-            <a:ext cx="337820" cy="543338"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>③</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7365,8 +8540,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1887915" y="3013785"/>
-          <a:ext cx="7327167" cy="904400"/>
+          <a:off x="1848970" y="3014388"/>
+          <a:ext cx="7172593" cy="902061"/>
           <a:chOff x="6958853" y="2136015"/>
           <a:chExt cx="3698145" cy="1209361"/>
         </a:xfrm>
@@ -7504,8 +8679,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1911096" y="3883451"/>
-          <a:ext cx="527529" cy="637125"/>
+          <a:off x="1871389" y="3881715"/>
+          <a:ext cx="516628" cy="635371"/>
           <a:chOff x="6912548" y="2727777"/>
           <a:chExt cx="461717" cy="576050"/>
         </a:xfrm>
@@ -7643,8 +8818,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2478496" y="3889473"/>
-          <a:ext cx="1769877" cy="635265"/>
+          <a:off x="2426364" y="3888118"/>
+          <a:ext cx="1732985" cy="633130"/>
           <a:chOff x="6953391" y="2679355"/>
           <a:chExt cx="890395" cy="893883"/>
         </a:xfrm>
@@ -7787,8 +8962,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8058752" y="5281311"/>
-          <a:ext cx="1190642" cy="392995"/>
+          <a:off x="7888938" y="5277972"/>
+          <a:ext cx="1165413" cy="392206"/>
           <a:chOff x="6912548" y="2727777"/>
           <a:chExt cx="1041545" cy="355588"/>
         </a:xfrm>
@@ -7926,8 +9101,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1772981" y="5504868"/>
-          <a:ext cx="1072714" cy="394138"/>
+          <a:off x="1735560" y="5502087"/>
+          <a:ext cx="1050151" cy="392206"/>
           <a:chOff x="6920872" y="2727777"/>
           <a:chExt cx="938534" cy="355588"/>
         </a:xfrm>
@@ -8042,13 +9217,2289 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>129182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4494D50A-1CCC-404C-A3C5-79037D0AFE89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17413942"/>
+          <a:ext cx="9592235" cy="6718240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>7544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79658D8A-90AA-45E5-BB8E-2294DF45A462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9648265"/>
+          <a:ext cx="9569824" cy="6596603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B03945F-298E-4F83-A4BA-510D975C467E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1411941"/>
+          <a:ext cx="9569824" cy="6596603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>89654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44828</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A142C593-5F95-4D64-A7CB-9BE2518A136E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1837765" y="3384183"/>
+          <a:ext cx="2554941" cy="661145"/>
+          <a:chOff x="6958853" y="2745443"/>
+          <a:chExt cx="2554941" cy="661144"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1EC4D9-4EB7-15C6-8FBD-B117C741B7E8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6958853" y="2745443"/>
+            <a:ext cx="2554941" cy="661144"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03920680-DA90-50FB-046B-90D07BABFD06}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8998324" y="2991972"/>
+            <a:ext cx="509701" cy="336176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>470646</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537881</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22416</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE95741-8E9B-4B94-AC95-E2D389552F97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1837764" y="2442889"/>
+          <a:ext cx="7586382" cy="874056"/>
+          <a:chOff x="6958853" y="2136015"/>
+          <a:chExt cx="3698145" cy="1367112"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864221C3-3AFE-3B18-3612-1577D320C21C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6958853" y="2700617"/>
+            <a:ext cx="3698145" cy="802510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83E903F-D28B-CA42-3B62-58D3C0B7365D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7944971" y="2136015"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>73965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF164D51-1583-46C5-AE5D-6894955AF881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4444253" y="3368494"/>
+          <a:ext cx="4968688" cy="867333"/>
+          <a:chOff x="6947647" y="2655796"/>
+          <a:chExt cx="4968688" cy="867331"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B12586D-9794-8A38-4FF7-585976882062}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6947647" y="2667000"/>
+            <a:ext cx="4968688" cy="856127"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BCD0C8-089E-8F77-7895-D0A74D0516C3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9502588" y="2655796"/>
+            <a:ext cx="509701" cy="336176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>439269</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537881</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219638</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88CBC620-C787-4152-947E-B75378CCE61D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1806387" y="4305306"/>
+          <a:ext cx="7617759" cy="856126"/>
+          <a:chOff x="6947646" y="2667000"/>
+          <a:chExt cx="7617759" cy="856127"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC3129A-65A0-98FD-D3B6-7B179656DD20}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6947646" y="2667000"/>
+            <a:ext cx="7617759" cy="856127"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D890AE8F-DD66-8907-AFED-2BB3F48C6CFB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9502588" y="3048002"/>
+            <a:ext cx="509701" cy="336176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>442875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>179299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>324959</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8007F906-25F6-4A4C-B78F-D1562A984C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1809993" y="13357417"/>
+          <a:ext cx="565642" cy="526675"/>
+          <a:chOff x="6912548" y="2609247"/>
+          <a:chExt cx="480654" cy="823775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A646A8-353F-7A42-FC3C-EE849CDF92DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6939810" y="2718144"/>
+            <a:ext cx="453392" cy="714878"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E85912-2494-2370-A33C-CBC68DC4EBB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6912548" y="2609247"/>
+            <a:ext cx="337820" cy="543339"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>179298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>576839</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44827</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="グループ化 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAC4112-DF8D-48C8-B690-39F33E3C7FB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2851635" y="13357416"/>
+          <a:ext cx="1826557" cy="571499"/>
+          <a:chOff x="6953391" y="2679355"/>
+          <a:chExt cx="890395" cy="893883"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905D9C39-E79E-48FF-49D6-4CC9F21A1EAB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6953391" y="2718145"/>
+            <a:ext cx="712991" cy="855093"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2B00DE-4AD4-6D36-9478-1CC9E49D920A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7617218" y="2679355"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>134468</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>139819</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>190497</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E134B65-0E01-4A52-8765-7863C78E192E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2308412" y="21078262"/>
+          <a:ext cx="565642" cy="526676"/>
+          <a:chOff x="6912548" y="2609247"/>
+          <a:chExt cx="480654" cy="823775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5777B692-8634-09A2-26B8-671F64341188}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6939810" y="2718144"/>
+            <a:ext cx="453392" cy="714878"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF6E61F-2F54-7E0D-589D-B2A93AADEFC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6912548" y="2609247"/>
+            <a:ext cx="337820" cy="543339"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>572854</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>331673</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>62766</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6837C679-DDF7-469F-9AE6-B81661C4BBAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1939972" y="14271825"/>
+          <a:ext cx="442377" cy="616323"/>
+          <a:chOff x="7017292" y="2469031"/>
+          <a:chExt cx="375910" cy="963991"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D82D8B5-F5EC-4CAE-345C-F9143EC888F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7035187" y="3001853"/>
+            <a:ext cx="358015" cy="431169"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="テキスト ボックス 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEA896F-574A-1191-715F-262E3A4C626D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7017292" y="2469031"/>
+            <a:ext cx="337820" cy="543338"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>364024</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="グループ化 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09A1861-6A77-4F8C-9D89-CC27443E2E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8415617" y="1232647"/>
+          <a:ext cx="1518231" cy="537883"/>
+          <a:chOff x="5121088" y="1860179"/>
+          <a:chExt cx="1518231" cy="537882"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FA26D1-9B50-2DB1-B750-80AFAB61A12D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5121088" y="2017062"/>
+            <a:ext cx="1042147" cy="380999"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="テキスト ボックス 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03EB10D-3DFE-2DA5-7978-E903EFBE71A5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6129618" y="1860179"/>
+            <a:ext cx="509701" cy="336176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F9C3F3-EF4B-61DA-C3C4-2081FD41D01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2588559"/>
+          <a:ext cx="9569824" cy="6660423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>402603</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>206513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285604</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>231321</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20C0C5F-390C-47ED-85D5-A1E81317C902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1769721" y="4442337"/>
+          <a:ext cx="2617236" cy="730778"/>
+          <a:chOff x="6890473" y="2745443"/>
+          <a:chExt cx="2617552" cy="738061"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8CCAEF-4966-7601-2854-4801800DA33B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6890473" y="2745443"/>
+            <a:ext cx="2554941" cy="738061"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB37DA29-FE59-72A3-6657-3BC540918550}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8998324" y="2991972"/>
+            <a:ext cx="509701" cy="336176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421822</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>220116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>524273</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152880</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC60CBA7-F30E-4196-BDFD-730D7F9E2BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1788940" y="3514645"/>
+          <a:ext cx="7621598" cy="874059"/>
+          <a:chOff x="6941606" y="2136015"/>
+          <a:chExt cx="3715392" cy="1367112"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CA66F6-96B8-85EA-30D3-8B41A02CD121}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6941606" y="2700617"/>
+            <a:ext cx="3715392" cy="802510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4845EA0-0E08-46B5-0607-0E9FD6A4D9B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7944971" y="2136015"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5793DE3-7EAD-44C3-A358-5AF4E4AF33F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4444253" y="4426648"/>
+          <a:ext cx="5013512" cy="1209911"/>
+          <a:chOff x="6947647" y="2655796"/>
+          <a:chExt cx="5013512" cy="1212789"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CCD6DC-9138-159D-DCD6-17BD69ED5CD7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6947647" y="2667000"/>
+            <a:ext cx="5013512" cy="1201585"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772EC067-369A-936C-043A-B228451AE3BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9502588" y="2655796"/>
+            <a:ext cx="509701" cy="336176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>608322</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493607</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263B95E9-8E5A-4467-B69D-0083CCEBD2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1975440" y="5479678"/>
+          <a:ext cx="568843" cy="722778"/>
+          <a:chOff x="6912548" y="2668512"/>
+          <a:chExt cx="480654" cy="764510"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550DCB9F-B2AA-5F13-2B50-4E876E653CC8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6939810" y="2718144"/>
+            <a:ext cx="453392" cy="714878"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B699D34-D233-199C-3810-3590B22573A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6912548" y="2668512"/>
+            <a:ext cx="337820" cy="355587"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>278043</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>51226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>60327</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089FFBE8-630C-40A8-83DF-F5AE8C92926F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3012278" y="5698991"/>
+          <a:ext cx="1832961" cy="542685"/>
+          <a:chOff x="6953391" y="2679355"/>
+          <a:chExt cx="890395" cy="893883"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC708EE-0BBD-90D6-0107-551B4AA9A34B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6953391" y="2718145"/>
+            <a:ext cx="712991" cy="855093"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキスト ボックス 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694257FC-006D-5616-0BA9-3BDFE7C4335D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7617218" y="2679355"/>
+            <a:ext cx="226568" cy="543340"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑥</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>502994</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>246538</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>79562</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7754CE-3CF2-4058-BD7D-9F0A0FAAFC68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2553670" y="5475196"/>
+          <a:ext cx="427103" cy="722778"/>
+          <a:chOff x="6912548" y="2668512"/>
+          <a:chExt cx="360888" cy="764510"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FE0A16-E0D7-5A06-0973-DA75665CCBDE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6939811" y="2718144"/>
+            <a:ext cx="333625" cy="714878"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A677D099-86C6-5C7A-CB92-43A0E2E1693E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6912548" y="2668512"/>
+            <a:ext cx="337820" cy="355587"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑤</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B4CCA96-641B-492D-8255-6F42665A292A}" name="テーブル1" displayName="テーブル1" ref="A3:D24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B4CCA96-641B-492D-8255-6F42665A292A}" name="テーブル1" displayName="テーブル1" ref="A3:D24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="1">
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{38D1745E-9D7C-4892-A431-A573EFBD643D}" name="サイドバーメニュー名" dataDxfId="5"/>
     <tableColumn id="1" xr3:uid="{BC36EB9A-7CB8-4B46-AAA5-C629FB0A0CD0}" name="権限(権限者のみ/誰でも可)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{20D25D9A-2E9A-4266-976D-0F267A31CC2A}" name="説明" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{EA1C4F80-B00F-483E-A3AA-54E337111B0D}" name="備考" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{20D25D9A-2E9A-4266-976D-0F267A31CC2A}" name="説明" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EA1C4F80-B00F-483E-A3AA-54E337111B0D}" name="備考" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8322,419 +11773,419 @@
   </sheetPr>
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.75" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="37.5">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="56.25">
+      <c r="A5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="37.5">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="37.5">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="37.5">
+      <c r="A8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="37.5">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>91</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="37.5">
+      <c r="A20" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>86</v>
+    <row r="22" spans="1:4" ht="37.5">
+      <c r="A22" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>87</v>
+      <c r="A23" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="37.5">
+      <c r="A28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="5"/>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="37.5">
+      <c r="A31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="D32" s="5"/>
     </row>
@@ -8746,8 +12197,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A4" location="ホーム!A1" display="ホーム" xr:uid="{6FA72CA5-BA80-4846-9E2E-2357B78B3220}"/>
+    <hyperlink ref="A5" location="ダッシュボード!A1" display="ダッシュボード" xr:uid="{C23CDA0E-92F4-466F-94A0-5EA675BF1755}"/>
+    <hyperlink ref="A6" location="'勤怠報告 ⇒ 勤怠一覧'!A1" display="勤怠報告" xr:uid="{65BE3BCC-1B67-4F42-A5E7-88CBE99F3EFD}"/>
+    <hyperlink ref="A7" location="'勤怠報告 ⇒ 勤怠一覧'!A1" display="勤怠報告 ⇒ 勤怠一覧" xr:uid="{1D036802-548C-4E93-8AE0-B03C65B70E7D}"/>
+    <hyperlink ref="A8" location="'勤怠報告 ⇒ 勤怠詳細'!A1" display="勤怠報告 ⇒ 勤怠詳細" xr:uid="{3786353D-F1DE-4692-ACA5-B90DBE45C594}"/>
+    <hyperlink ref="A9" location="'勤怠管理 ⇒ 勤怠編集'!A1" display="勤怠報告 ⇒ 勤怠編集" xr:uid="{D830861D-0B60-45E3-B6B4-F611EBAB7E12}"/>
+    <hyperlink ref="A20" location="'勤怠管理 ⇒ 勤怠状況'!A1" display="勤怠管理 ⇒ 勤怠状況" xr:uid="{A641CC5F-9682-4C85-AC7D-D15593C40DAE}"/>
+    <hyperlink ref="A22" location="'勤怠管理 ⇒ 勤怠詳細'!A1" display="勤怠管理 ⇒ 勤怠詳細" xr:uid="{BB2EAE4B-86E9-4144-A223-711A846181C3}"/>
+    <hyperlink ref="A19" location="'勤怠管理 ⇒ 勤怠状況'!A1" display="勤怠管理" xr:uid="{6B1418E3-61C2-4AED-B55E-FCC819E47669}"/>
+    <hyperlink ref="A21" location="'勤怠管理 ⇒ 勤怠一覧'!A1" display="勤怠管理 ⇒ 勤怠一覧" xr:uid="{107EC7E3-7184-45D0-9BD4-93297FD270A5}"/>
+    <hyperlink ref="A23" location="'勤怠管理 ⇒ 勤怠編集'!A1" display="勤怠管理 ⇒ 勤怠編集" xr:uid="{4646246D-4D26-4EE2-B9BE-1A792914D24E}"/>
+    <hyperlink ref="A27" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理" xr:uid="{92254D06-28C4-448E-9809-D9F1D72E9363}"/>
+    <hyperlink ref="A28" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理 ⇒ 社員一覧" xr:uid="{BC9F11AD-9256-48C5-AF91-EA50426A7DD8}"/>
+    <hyperlink ref="A29" location="'人事管理 ⇒ 人事設定'!A1" display="人事管理 ⇒ 人事設定" xr:uid="{1AAFBB89-BD93-44D3-A27D-7CA609F93BF0}"/>
+    <hyperlink ref="A31" location="'アカウント設定 ⇒ プロフィール'!A1" display="アカウント設定 ⇒ プロフィール" xr:uid="{CF66F8D0-6CE1-48B2-92CD-B8AC2E64C007}"/>
+    <hyperlink ref="A32" location="'アカウント設定 ⇒ パスワード変更'!A1" display="アカウント設定 ⇒ パスワード変更" xr:uid="{48F6E15E-A4D0-4214-8BAE-B0E748F67B58}"/>
+  </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P</oddFooter>
@@ -8764,52 +12233,152 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A71C343-538A-42BC-B54C-3C13C9C390D4}">
   <sheetPr>
+    <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B53"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:12">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>56</v>
+        <v>92</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7676A8-3AF4-4F59-AD5A-D5DBA712112D}">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -8824,6 +12393,299 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628C2AFA-534B-43E9-AFD4-BB5C5A26A1FE}">
+  <sheetPr>
+    <tabColor theme="7"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L69"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B64CF00-6A60-4486-B6DE-81992B9867E4}">
+  <sheetPr>
+    <tabColor theme="7"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD0D4E-624C-42ED-A06A-1B9162597E46}">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DEC247-5390-4BDD-817F-036D0A7BF773}">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:B43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{94824881-6956-4CC6-9850-BAC45149B10D}"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5E9585-1C2F-4156-8F68-A8D0159FBE3C}">
   <sheetPr>
@@ -8831,35 +12693,35 @@
   </sheetPr>
   <dimension ref="A2:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8881,8 +12743,8 @@
   </sheetPr>
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8892,27 +12754,27 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8930,12 +12792,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FA70C4-5003-4D03-96EB-69AA927AFA64}">
   <sheetPr>
+    <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8945,77 +12808,77 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -9033,12 +12896,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923CEF8A-20FA-428D-A18B-7AE121E69606}">
   <sheetPr>
+    <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9048,53 +12912,53 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -9112,12 +12976,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF7F4C7-9869-4E0A-94AC-1008F8E5BEBB}">
   <sheetPr>
+    <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9127,53 +12992,53 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -9191,12 +13056,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E00FE8E-B632-49E8-9B47-B554370DD915}">
   <sheetPr>
+    <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9206,12 +13072,73 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE07E73-A27B-4E19-A3DC-4BF2EF74772F}">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:A74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -9221,97 +13148,62 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>117</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>119</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/atndnc-mngmnt/documents/operation-manual/操作マニュアル.xlsx
+++ b/atndnc-mngmnt/documents/operation-manual/操作マニュアル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\operation-manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F01CB5-9687-44D2-BEC7-F0069DF7FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12E90A0-9C13-478D-B344-AFFF3EC26F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="105" windowWidth="24090" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="105" windowWidth="14925" windowHeight="15645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="アカウント設定 ⇒ パスワード変更" sheetId="14" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$D$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,11 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
-  <si>
-    <t>http://54.248.65.156/</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
   <si>
     <t>①　以下のURLにアクセスし、デモアカウントを使用して、右上のログインリンクを押してください。</t>
     <rPh sb="2" eb="4">
@@ -739,10 +735,6 @@
     <rPh sb="18" eb="20">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　●</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2499,6 +2491,10 @@
     <rPh sb="14" eb="15">
       <t>モ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://kari-works.com/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2643,24 +2639,23 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2743,29 +2738,30 @@
         </patternFill>
       </fill>
       <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top/>
+        <bottom/>
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        </vertical>
+        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2985,13 +2981,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384695</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>188979</xdr:rowOff>
+      <xdr:rowOff>13609</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3014,8 +3010,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10531929"/>
-          <a:ext cx="8164286" cy="4842621"/>
+          <a:off x="0" y="10531930"/>
+          <a:ext cx="7868624" cy="4667250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5078,14 +5074,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>198188</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>198187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5122,13 +5118,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>22415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>145678</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5144,8 +5140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6958853" y="2140327"/>
-          <a:ext cx="2398059" cy="1770527"/>
+          <a:off x="6958853" y="1905003"/>
+          <a:ext cx="2398059" cy="1770528"/>
           <a:chOff x="6958853" y="2375649"/>
           <a:chExt cx="2398059" cy="1770528"/>
         </a:xfrm>
@@ -5261,13 +5257,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>44826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>212912</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -5283,8 +5279,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1949823" y="2162738"/>
-          <a:ext cx="4919383" cy="874056"/>
+          <a:off x="1949823" y="1927414"/>
+          <a:ext cx="4919383" cy="874057"/>
           <a:chOff x="6958853" y="2136015"/>
           <a:chExt cx="2398059" cy="1367112"/>
         </a:xfrm>
@@ -5400,13 +5396,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>121674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11494,12 +11490,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B4CCA96-641B-492D-8255-6F42665A292A}" name="テーブル1" displayName="テーブル1" ref="A3:D24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B4CCA96-641B-492D-8255-6F42665A292A}" name="テーブル1" displayName="テーブル1" ref="A3:D24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5">
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{38D1745E-9D7C-4892-A431-A573EFBD643D}" name="サイドバーメニュー名" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{BC36EB9A-7CB8-4B46-AAA5-C629FB0A0CD0}" name="権限(権限者のみ/誰でも可)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{20D25D9A-2E9A-4266-976D-0F267A31CC2A}" name="説明" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EA1C4F80-B00F-483E-A3AA-54E337111B0D}" name="備考" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{38D1745E-9D7C-4892-A431-A573EFBD643D}" name="サイドバーメニュー名" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BC36EB9A-7CB8-4B46-AAA5-C629FB0A0CD0}" name="権限(権限者のみ/誰でも可)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{20D25D9A-2E9A-4266-976D-0F267A31CC2A}" name="説明" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{EA1C4F80-B00F-483E-A3AA-54E337111B0D}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11773,8 +11769,8 @@
   </sheetPr>
   <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11788,404 +11784,404 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="C3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.5">
       <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="56.25">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="56.25">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="37.5">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="37.5">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1">
       <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1">
       <c r="A18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="56.25">
+      <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5">
-      <c r="A19" s="11" t="s">
-        <v>34</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="37.5">
       <c r="A20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:4" ht="37.5">
       <c r="A21" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="37.5">
       <c r="A22" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4" ht="37.5">
       <c r="A28" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="37.5">
       <c r="A31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="37.5">
+      <c r="A32" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="10" t="s">
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D32" s="5"/>
     </row>
@@ -12225,7 +12221,7 @@
     <brk id="38" max="3" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="1" max="33" man="1"/>
+    <brk id="1" max="36" man="1"/>
   </colBreaks>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -12242,7 +12238,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12252,53 +12248,53 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -12322,7 +12318,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12332,53 +12328,53 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -12402,7 +12398,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12412,92 +12408,92 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L10" s="8"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L35" s="8"/>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -12521,7 +12517,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12549,7 +12545,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12577,7 +12573,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12587,33 +12583,33 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L3" s="8"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -12635,46 +12631,46 @@
   </sheetPr>
   <dimension ref="A2:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="11" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{94824881-6956-4CC6-9850-BAC45149B10D}"/>
+    <hyperlink ref="B5" r:id="rId1" display="http://kari-works.com/" xr:uid="{94824881-6956-4CC6-9850-BAC45149B10D}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId2"/>
@@ -12694,34 +12690,34 @@
   <dimension ref="A2:A6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -12741,10 +12737,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12754,27 +12750,22 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -12797,9 +12788,7 @@
   </sheetPr>
   <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -12808,77 +12797,77 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12902,7 +12891,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12912,53 +12901,53 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -12982,7 +12971,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12992,53 +12981,53 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -13062,7 +13051,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13072,37 +13061,37 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -13126,84 +13115,84 @@
   <dimension ref="A2:A74"/>
   <sheetViews>
     <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/atndnc-mngmnt/documents/operation-manual/操作マニュアル.xlsx
+++ b/atndnc-mngmnt/documents/operation-manual/操作マニュアル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\operation-manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12E90A0-9C13-478D-B344-AFFF3EC26F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8A6CE1-E30F-4BCE-A755-2A87FD9F962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="105" windowWidth="14925" windowHeight="15645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -25,12 +25,13 @@
     <sheet name="勤怠管理 ⇒ 勤怠詳細" sheetId="10" r:id="rId10"/>
     <sheet name="勤怠管理 ⇒ 勤怠編集" sheetId="11" r:id="rId11"/>
     <sheet name="人事管理 ⇒ 社員一覧" sheetId="12" r:id="rId12"/>
-    <sheet name="人事管理 ⇒ 人事設定" sheetId="13" r:id="rId13"/>
-    <sheet name="アカウント設定 ⇒ プロフィール" sheetId="15" r:id="rId14"/>
-    <sheet name="アカウント設定 ⇒ パスワード変更" sheetId="14" r:id="rId15"/>
+    <sheet name="人事管理 ⇒ 社員一覧 ⇒ 社員登録" sheetId="16" r:id="rId13"/>
+    <sheet name="人事管理 ⇒ 人事設定" sheetId="13" r:id="rId14"/>
+    <sheet name="アカウント設定 ⇒ プロフィール" sheetId="15" r:id="rId15"/>
+    <sheet name="アカウント設定 ⇒ パスワード変更" sheetId="14" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$D$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="144">
   <si>
     <t>①　以下のURLにアクセスし、デモアカウントを使用して、右上のログインリンクを押してください。</t>
     <rPh sb="2" eb="4">
@@ -2495,6 +2496,48 @@
   </si>
   <si>
     <t>https://kari-works.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①　従業員を登録できます。</t>
+    <rPh sb="2" eb="4">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人事管理 ⇒ 社員一覧 ⇒ 社員登録</t>
+    <rPh sb="0" eb="2">
+      <t>ジンジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員を登録できます。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4471,6 +4514,55 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>195604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9D8D0F-64F9-85CC-20D1-1306DC81D8C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2588560"/>
+          <a:ext cx="9581029" cy="6784662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -11767,11 +11859,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D33"/>
+  <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -12136,60 +12226,72 @@
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="37.5">
-      <c r="A31" s="12" t="s">
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4" ht="37.5">
+      <c r="A32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="37.5">
-      <c r="A32" s="10" t="s">
+    <row r="33" spans="1:4" ht="37.5">
+      <c r="A33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12206,10 +12308,11 @@
     <hyperlink ref="A21" location="'勤怠管理 ⇒ 勤怠一覧'!A1" display="勤怠管理 ⇒ 勤怠一覧" xr:uid="{107EC7E3-7184-45D0-9BD4-93297FD270A5}"/>
     <hyperlink ref="A23" location="'勤怠管理 ⇒ 勤怠編集'!A1" display="勤怠管理 ⇒ 勤怠編集" xr:uid="{4646246D-4D26-4EE2-B9BE-1A792914D24E}"/>
     <hyperlink ref="A27" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理" xr:uid="{92254D06-28C4-448E-9809-D9F1D72E9363}"/>
-    <hyperlink ref="A28" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理 ⇒ 社員一覧" xr:uid="{BC9F11AD-9256-48C5-AF91-EA50426A7DD8}"/>
-    <hyperlink ref="A29" location="'人事管理 ⇒ 人事設定'!A1" display="人事管理 ⇒ 人事設定" xr:uid="{1AAFBB89-BD93-44D3-A27D-7CA609F93BF0}"/>
-    <hyperlink ref="A31" location="'アカウント設定 ⇒ プロフィール'!A1" display="アカウント設定 ⇒ プロフィール" xr:uid="{CF66F8D0-6CE1-48B2-92CD-B8AC2E64C007}"/>
-    <hyperlink ref="A32" location="'アカウント設定 ⇒ パスワード変更'!A1" display="アカウント設定 ⇒ パスワード変更" xr:uid="{48F6E15E-A4D0-4214-8BAE-B0E748F67B58}"/>
+    <hyperlink ref="A29" location="'人事管理 ⇒ 社員一覧 ⇒ 社員登録'!A1" display="人事管理 ⇒ 社員一覧" xr:uid="{BC9F11AD-9256-48C5-AF91-EA50426A7DD8}"/>
+    <hyperlink ref="A30" location="'人事管理 ⇒ 人事設定'!A1" display="人事管理 ⇒ 人事設定" xr:uid="{1AAFBB89-BD93-44D3-A27D-7CA609F93BF0}"/>
+    <hyperlink ref="A32" location="'アカウント設定 ⇒ プロフィール'!A1" display="アカウント設定 ⇒ プロフィール" xr:uid="{CF66F8D0-6CE1-48B2-92CD-B8AC2E64C007}"/>
+    <hyperlink ref="A33" location="'アカウント設定 ⇒ パスワード変更'!A1" display="アカウント設定 ⇒ パスワード変更" xr:uid="{48F6E15E-A4D0-4214-8BAE-B0E748F67B58}"/>
+    <hyperlink ref="A28" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理 ⇒ 社員一覧" xr:uid="{68E4566E-BE5D-491C-B4FF-71B3A38A3680}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12218,7 +12321,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="3" man="1"/>
+    <brk id="39" max="3" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="1" max="36" man="1"/>
@@ -12397,9 +12500,7 @@
   </sheetPr>
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -12509,6 +12610,58 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262A2F14-58A4-4E1E-9D08-8E7AAC176545}">
+  <sheetPr>
+    <tabColor theme="7"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="L3" s="8"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B64CF00-6A60-4486-B6DE-81992B9867E4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -12536,7 +12689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD0D4E-624C-42ED-A06A-1B9162597E46}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12564,7 +12717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DEC247-5390-4BDD-817F-036D0A7BF773}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12631,7 +12784,7 @@
   </sheetPr>
   <dimension ref="A2:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/atndnc-mngmnt/documents/operation-manual/操作マニュアル.xlsx
+++ b/atndnc-mngmnt/documents/operation-manual/操作マニュアル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\operation-manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8A6CE1-E30F-4BCE-A755-2A87FD9F962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE6D87-FAE5-48E9-B4F8-B661A2B5214C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -25,13 +25,12 @@
     <sheet name="勤怠管理 ⇒ 勤怠詳細" sheetId="10" r:id="rId10"/>
     <sheet name="勤怠管理 ⇒ 勤怠編集" sheetId="11" r:id="rId11"/>
     <sheet name="人事管理 ⇒ 社員一覧" sheetId="12" r:id="rId12"/>
-    <sheet name="人事管理 ⇒ 社員一覧 ⇒ 社員登録" sheetId="16" r:id="rId13"/>
-    <sheet name="人事管理 ⇒ 人事設定" sheetId="13" r:id="rId14"/>
-    <sheet name="アカウント設定 ⇒ プロフィール" sheetId="15" r:id="rId15"/>
-    <sheet name="アカウント設定 ⇒ パスワード変更" sheetId="14" r:id="rId16"/>
+    <sheet name="人事管理 ⇒ 人事設定" sheetId="13" r:id="rId13"/>
+    <sheet name="アカウント設定 ⇒ プロフィール" sheetId="15" r:id="rId14"/>
+    <sheet name="アカウント設定 ⇒ パスワード変更" sheetId="14" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$D$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">概要!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
   <si>
     <t>①　以下のURLにアクセスし、デモアカウントを使用して、右上のログインリンクを押してください。</t>
     <rPh sb="2" eb="4">
@@ -2282,19 +2281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　●①手動で追加する画面へリンクします。</t>
-    <rPh sb="4" eb="6">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>　　　　アップロードで一括登録出来ます。</t>
     </r>
@@ -2499,44 +2485,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①　従業員を登録できます。</t>
-    <rPh sb="2" eb="4">
-      <t>ジュウギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
+    <t>　　●①「手動で追加する」登録画面へリンクします。</t>
+    <rPh sb="5" eb="7">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人事管理 ⇒ 社員一覧 ⇒ 社員登録</t>
-    <rPh sb="0" eb="2">
-      <t>ジンジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>従業員を登録できます。</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4070,8 +4030,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1238249" y="3448050"/>
-          <a:ext cx="8343900" cy="2505075"/>
+          <a:off x="1232806" y="3543300"/>
+          <a:ext cx="8278586" cy="2579914"/>
           <a:chOff x="6672182" y="1972073"/>
           <a:chExt cx="4051030" cy="3881176"/>
         </a:xfrm>
@@ -4209,8 +4169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1792888" y="13412240"/>
-          <a:ext cx="1321791" cy="1265786"/>
+          <a:off x="1782002" y="13793240"/>
+          <a:ext cx="1310906" cy="1299804"/>
           <a:chOff x="7144939" y="7492922"/>
           <a:chExt cx="641740" cy="1961114"/>
         </a:xfrm>
@@ -4326,13 +4286,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>178348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4370,13 +4330,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533395</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647695</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>8485</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4392,8 +4352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2590795" y="21564600"/>
-          <a:ext cx="800100" cy="827635"/>
+          <a:off x="2574466" y="30014636"/>
+          <a:ext cx="794658" cy="854849"/>
           <a:chOff x="7149563" y="8171759"/>
           <a:chExt cx="388455" cy="1282276"/>
         </a:xfrm>
@@ -4505,30 +4465,25 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>195604</xdr:rowOff>
+      <xdr:colOff>40820</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>104382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
+        <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9D8D0F-64F9-85CC-20D1-1306DC81D8C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D049FB3-156D-4088-BAEB-F92D125ABDE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4537,15 +4492,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2588560"/>
-          <a:ext cx="9581029" cy="6784662"/>
+          <a:off x="0" y="16165286"/>
+          <a:ext cx="9565820" cy="7207310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4557,7 +4512,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11859,9 +11814,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D34"/>
+  <dimension ref="A2:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -12221,77 +12178,65 @@
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="37.5">
+      <c r="A31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="C31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="37.5">
+      <c r="A32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="37.5">
-      <c r="A32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="37.5">
-      <c r="A33" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12308,11 +12253,10 @@
     <hyperlink ref="A21" location="'勤怠管理 ⇒ 勤怠一覧'!A1" display="勤怠管理 ⇒ 勤怠一覧" xr:uid="{107EC7E3-7184-45D0-9BD4-93297FD270A5}"/>
     <hyperlink ref="A23" location="'勤怠管理 ⇒ 勤怠編集'!A1" display="勤怠管理 ⇒ 勤怠編集" xr:uid="{4646246D-4D26-4EE2-B9BE-1A792914D24E}"/>
     <hyperlink ref="A27" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理" xr:uid="{92254D06-28C4-448E-9809-D9F1D72E9363}"/>
-    <hyperlink ref="A29" location="'人事管理 ⇒ 社員一覧 ⇒ 社員登録'!A1" display="人事管理 ⇒ 社員一覧" xr:uid="{BC9F11AD-9256-48C5-AF91-EA50426A7DD8}"/>
-    <hyperlink ref="A30" location="'人事管理 ⇒ 人事設定'!A1" display="人事管理 ⇒ 人事設定" xr:uid="{1AAFBB89-BD93-44D3-A27D-7CA609F93BF0}"/>
-    <hyperlink ref="A32" location="'アカウント設定 ⇒ プロフィール'!A1" display="アカウント設定 ⇒ プロフィール" xr:uid="{CF66F8D0-6CE1-48B2-92CD-B8AC2E64C007}"/>
-    <hyperlink ref="A33" location="'アカウント設定 ⇒ パスワード変更'!A1" display="アカウント設定 ⇒ パスワード変更" xr:uid="{48F6E15E-A4D0-4214-8BAE-B0E748F67B58}"/>
-    <hyperlink ref="A28" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理 ⇒ 社員一覧" xr:uid="{68E4566E-BE5D-491C-B4FF-71B3A38A3680}"/>
+    <hyperlink ref="A28" location="'人事管理 ⇒ 社員一覧'!A1" display="人事管理 ⇒ 社員一覧" xr:uid="{BC9F11AD-9256-48C5-AF91-EA50426A7DD8}"/>
+    <hyperlink ref="A29" location="'人事管理 ⇒ 人事設定'!A1" display="人事管理 ⇒ 人事設定" xr:uid="{1AAFBB89-BD93-44D3-A27D-7CA609F93BF0}"/>
+    <hyperlink ref="A31" location="'アカウント設定 ⇒ プロフィール'!A1" display="アカウント設定 ⇒ プロフィール" xr:uid="{CF66F8D0-6CE1-48B2-92CD-B8AC2E64C007}"/>
+    <hyperlink ref="A32" location="'アカウント設定 ⇒ パスワード変更'!A1" display="アカウント設定 ⇒ パスワード変更" xr:uid="{48F6E15E-A4D0-4214-8BAE-B0E748F67B58}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12321,7 +12265,7 @@
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="39" max="3" man="1"/>
+    <brk id="38" max="3" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="1" max="36" man="1"/>
@@ -12498,9 +12442,9 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -12567,34 +12511,34 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
         <v>127</v>
       </c>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -12610,58 +12554,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262A2F14-58A4-4E1E-9D08-8E7AAC176545}">
-  <sheetPr>
-    <tabColor theme="7"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L24"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="L3" s="8"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>127</v>
-      </c>
-      <c r="L24" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B64CF00-6A60-4486-B6DE-81992B9867E4}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -12689,7 +12581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0AD0D4E-624C-42ED-A06A-1B9162597E46}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12717,7 +12609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DEC247-5390-4BDD-817F-036D0A7BF773}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12736,33 +12628,33 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" s="8"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -12797,7 +12689,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -12807,7 +12699,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:1">
